--- a/Code/Results/Cases/Case_6_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010048663123578</v>
+        <v>1.002590441470383</v>
       </c>
       <c r="D2">
-        <v>1.031911831269942</v>
+        <v>1.025852283176114</v>
       </c>
       <c r="E2">
-        <v>1.014488894277768</v>
+        <v>1.008657692282398</v>
       </c>
       <c r="F2">
-        <v>1.036084934185129</v>
+        <v>1.029919124431271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054060841775063</v>
+        <v>1.05082124226031</v>
       </c>
       <c r="J2">
-        <v>1.031932918878585</v>
+        <v>1.024693947976362</v>
       </c>
       <c r="K2">
-        <v>1.042943789349046</v>
+        <v>1.03696283080481</v>
       </c>
       <c r="L2">
-        <v>1.025749999780425</v>
+        <v>1.019997715148618</v>
       </c>
       <c r="M2">
-        <v>1.04706343688602</v>
+        <v>1.040976799298217</v>
       </c>
       <c r="N2">
-        <v>1.033398381987753</v>
+        <v>1.026149130916527</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017168218292206</v>
+        <v>1.007350985594774</v>
       </c>
       <c r="D3">
-        <v>1.037548767660358</v>
+        <v>1.029562948554286</v>
       </c>
       <c r="E3">
-        <v>1.020428143452</v>
+        <v>1.012475557796507</v>
       </c>
       <c r="F3">
-        <v>1.042266425619026</v>
+        <v>1.03414656397262</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056582823844579</v>
+        <v>1.052308894103102</v>
       </c>
       <c r="J3">
-        <v>1.03720155579992</v>
+        <v>1.027643241726208</v>
       </c>
       <c r="K3">
-        <v>1.047722730891361</v>
+        <v>1.039831038931789</v>
       </c>
       <c r="L3">
-        <v>1.030806147847189</v>
+        <v>1.022951261780156</v>
       </c>
       <c r="M3">
-        <v>1.052385620231664</v>
+        <v>1.044360408211126</v>
       </c>
       <c r="N3">
-        <v>1.038674500977837</v>
+        <v>1.029102613001787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021643980809111</v>
+        <v>1.010366067286486</v>
       </c>
       <c r="D4">
-        <v>1.041094268023003</v>
+        <v>1.031913473183661</v>
       </c>
       <c r="E4">
-        <v>1.024167396529512</v>
+        <v>1.014899725664253</v>
       </c>
       <c r="F4">
-        <v>1.046157188083597</v>
+        <v>1.036826563949265</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058153801828836</v>
+        <v>1.053236981420977</v>
       </c>
       <c r="J4">
-        <v>1.040509780652868</v>
+        <v>1.029508274248442</v>
       </c>
       <c r="K4">
-        <v>1.050720784332658</v>
+        <v>1.041641403696828</v>
       </c>
       <c r="L4">
-        <v>1.033982636301815</v>
+        <v>1.024821589520415</v>
       </c>
       <c r="M4">
-        <v>1.055728711520992</v>
+        <v>1.046499948211182</v>
       </c>
       <c r="N4">
-        <v>1.041987423889536</v>
+        <v>1.030970294084125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023495880380854</v>
+        <v>1.01161855039699</v>
       </c>
       <c r="D5">
-        <v>1.042561590260987</v>
+        <v>1.032889926446424</v>
       </c>
       <c r="E5">
-        <v>1.025715791378647</v>
+        <v>1.015908162750291</v>
       </c>
       <c r="F5">
-        <v>1.047768069125645</v>
+        <v>1.037940411263819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058800270470449</v>
+        <v>1.053619074942955</v>
       </c>
       <c r="J5">
-        <v>1.041877587636088</v>
+        <v>1.030282286748477</v>
       </c>
       <c r="K5">
-        <v>1.051959681073682</v>
+        <v>1.042391897708917</v>
       </c>
       <c r="L5">
-        <v>1.035296372977219</v>
+        <v>1.025598424341586</v>
       </c>
       <c r="M5">
-        <v>1.057111209483771</v>
+        <v>1.047387840849981</v>
       </c>
       <c r="N5">
-        <v>1.043357173315561</v>
+        <v>1.03174540577069</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023805126220803</v>
+        <v>1.011827981093471</v>
       </c>
       <c r="D6">
-        <v>1.042806632673264</v>
+        <v>1.03305320164525</v>
       </c>
       <c r="E6">
-        <v>1.025974425697174</v>
+        <v>1.016076868242823</v>
       </c>
       <c r="F6">
-        <v>1.04803712555357</v>
+        <v>1.038126691653855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058908013081038</v>
+        <v>1.053682761986847</v>
       </c>
       <c r="J6">
-        <v>1.042105934414581</v>
+        <v>1.03041166703549</v>
       </c>
       <c r="K6">
-        <v>1.052166467161006</v>
+        <v>1.042517297429674</v>
       </c>
       <c r="L6">
-        <v>1.03551571619078</v>
+        <v>1.025728313118395</v>
       </c>
       <c r="M6">
-        <v>1.05734202436686</v>
+        <v>1.047536253912432</v>
       </c>
       <c r="N6">
-        <v>1.043585844372671</v>
+        <v>1.03187496979255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021668840619179</v>
+        <v>1.010382861448721</v>
       </c>
       <c r="D7">
-        <v>1.041113964111026</v>
+        <v>1.031926566101342</v>
       </c>
       <c r="E7">
-        <v>1.024188177328602</v>
+        <v>1.014913241926701</v>
       </c>
       <c r="F7">
-        <v>1.04617880851646</v>
+        <v>1.036841497048154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058162494094082</v>
+        <v>1.053242118454823</v>
       </c>
       <c r="J7">
-        <v>1.040528146106047</v>
+        <v>1.029518655691446</v>
       </c>
       <c r="K7">
-        <v>1.050737421590057</v>
+        <v>1.04165147300349</v>
       </c>
       <c r="L7">
-        <v>1.034000274195152</v>
+        <v>1.024832006348874</v>
       </c>
       <c r="M7">
-        <v>1.055747273169259</v>
+        <v>1.046511857259421</v>
       </c>
       <c r="N7">
-        <v>1.042005815423764</v>
+        <v>1.030980690269967</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012482934370138</v>
+        <v>1.004213169992693</v>
       </c>
       <c r="D8">
-        <v>1.033838731635524</v>
+        <v>1.02711702142502</v>
       </c>
       <c r="E8">
-        <v>1.016518389491503</v>
+        <v>1.009957773623163</v>
       </c>
       <c r="F8">
-        <v>1.038197409284257</v>
+        <v>1.031359562222423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054926154007971</v>
+        <v>1.051331267375021</v>
       </c>
       <c r="J8">
-        <v>1.033735127564303</v>
+        <v>1.025699859077458</v>
       </c>
       <c r="K8">
-        <v>1.044579043732835</v>
+        <v>1.037941788289411</v>
       </c>
       <c r="L8">
-        <v>1.027479162550576</v>
+        <v>1.021004529021658</v>
       </c>
       <c r="M8">
-        <v>1.048883684431714</v>
+        <v>1.042130864014198</v>
       </c>
       <c r="N8">
-        <v>1.03520315001652</v>
+        <v>1.027156470526766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9952098492228677</v>
+        <v>0.9928135946154275</v>
       </c>
       <c r="D9">
-        <v>1.020178232391162</v>
+        <v>1.018236529393951</v>
       </c>
       <c r="E9">
-        <v>1.00214513199315</v>
+        <v>1.0008529142051</v>
       </c>
       <c r="F9">
-        <v>1.023232700891791</v>
+        <v>1.02125382414309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048726516833592</v>
+        <v>1.047690587168329</v>
       </c>
       <c r="J9">
-        <v>1.020932901458793</v>
+        <v>1.018622700829397</v>
       </c>
       <c r="K9">
-        <v>1.032952200258143</v>
+        <v>1.031040501814523</v>
       </c>
       <c r="L9">
-        <v>1.015203501538672</v>
+        <v>1.013932168611594</v>
       </c>
       <c r="M9">
-        <v>1.035959762957988</v>
+        <v>1.03401123388868</v>
       </c>
       <c r="N9">
-        <v>1.022382743281505</v>
+        <v>1.020069261902231</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9828348777549856</v>
+        <v>0.9848177116559248</v>
       </c>
       <c r="D10">
-        <v>1.010413074191012</v>
+        <v>1.012015979273054</v>
       </c>
       <c r="E10">
-        <v>0.9918879801967768</v>
+        <v>0.9945048474799533</v>
       </c>
       <c r="F10">
-        <v>1.012549307375274</v>
+        <v>1.014185119785239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044212150198783</v>
+        <v>1.045065924661092</v>
       </c>
       <c r="J10">
-        <v>1.011746480666721</v>
+        <v>1.013646918157199</v>
       </c>
       <c r="K10">
-        <v>1.024596828635225</v>
+        <v>1.026171618543331</v>
       </c>
       <c r="L10">
-        <v>1.006405260773898</v>
+        <v>1.008974032514725</v>
       </c>
       <c r="M10">
-        <v>1.026695617561078</v>
+        <v>1.028302895236493</v>
       </c>
       <c r="N10">
-        <v>1.013183276718211</v>
+        <v>1.01508641304791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9772388853196884</v>
+        <v>0.9812513581274563</v>
       </c>
       <c r="D11">
-        <v>1.006004468594072</v>
+        <v>1.009244492930681</v>
       </c>
       <c r="E11">
-        <v>0.9872610266849066</v>
+        <v>0.99168338926769</v>
       </c>
       <c r="F11">
-        <v>1.007729323550363</v>
+        <v>1.011037934781388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042154698505638</v>
+        <v>1.043879233231598</v>
       </c>
       <c r="J11">
-        <v>1.00759019632581</v>
+        <v>1.011425451409942</v>
       </c>
       <c r="K11">
-        <v>1.020814030894897</v>
+        <v>1.023994152325611</v>
       </c>
       <c r="L11">
-        <v>1.002427247535137</v>
+        <v>1.006763867621584</v>
       </c>
       <c r="M11">
-        <v>1.022506933518088</v>
+        <v>1.025754651260969</v>
       </c>
       <c r="N11">
-        <v>1.009021089976804</v>
+        <v>1.012861791563065</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9751213001304474</v>
+        <v>0.9799100838660108</v>
       </c>
       <c r="D12">
-        <v>1.004337487787058</v>
+        <v>1.008202709210808</v>
       </c>
       <c r="E12">
-        <v>0.9855120138878048</v>
+        <v>0.9906238328722871</v>
       </c>
       <c r="F12">
-        <v>1.005907253338281</v>
+        <v>1.009855238370368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041373843136993</v>
+        <v>1.043430593635963</v>
       </c>
       <c r="J12">
-        <v>1.006017210741188</v>
+        <v>1.010589711118419</v>
       </c>
       <c r="K12">
-        <v>1.019382057516081</v>
+        <v>1.023174427675674</v>
       </c>
       <c r="L12">
-        <v>1.000922146027683</v>
+        <v>1.005932897353092</v>
       </c>
       <c r="M12">
-        <v>1.020922148081599</v>
+        <v>1.024796032250791</v>
       </c>
       <c r="N12">
-        <v>1.007445870572227</v>
+        <v>1.012024864424467</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9755773509582344</v>
+        <v>0.9801985574441259</v>
       </c>
       <c r="D13">
-        <v>1.004696433449018</v>
+        <v>1.008426743772672</v>
       </c>
       <c r="E13">
-        <v>0.9858885999494738</v>
+        <v>0.9908516440025885</v>
       </c>
       <c r="F13">
-        <v>1.006299573366582</v>
+        <v>1.010109562363299</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041542112460888</v>
+        <v>1.043527188763335</v>
       </c>
       <c r="J13">
-        <v>1.006355981614993</v>
+        <v>1.01076946842796</v>
       </c>
       <c r="K13">
-        <v>1.019690473408578</v>
+        <v>1.023350764157723</v>
       </c>
       <c r="L13">
-        <v>1.001246277757888</v>
+        <v>1.006111605216933</v>
       </c>
       <c r="M13">
-        <v>1.021263438608582</v>
+        <v>1.025002216314727</v>
       </c>
       <c r="N13">
-        <v>1.00778512253953</v>
+        <v>1.012204877010006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9770646608807442</v>
+        <v>0.9811408316932568</v>
       </c>
       <c r="D14">
-        <v>1.005867290396726</v>
+        <v>1.009158634040004</v>
       </c>
       <c r="E14">
-        <v>0.9871170874373073</v>
+        <v>0.9915960451767124</v>
       </c>
       <c r="F14">
-        <v>1.007579373572928</v>
+        <v>1.010940456340186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042090499369854</v>
+        <v>1.04384231053487</v>
       </c>
       <c r="J14">
-        <v>1.007460782187581</v>
+        <v>1.011356588093695</v>
       </c>
       <c r="K14">
-        <v>1.020696224843051</v>
+        <v>1.023926619465545</v>
       </c>
       <c r="L14">
-        <v>1.002303409875616</v>
+        <v>1.006695386793868</v>
       </c>
       <c r="M14">
-        <v>1.022376538914445</v>
+        <v>1.025675661696371</v>
       </c>
       <c r="N14">
-        <v>1.008891492055654</v>
+        <v>1.01279283045301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.977975770147573</v>
+        <v>0.9817191728830715</v>
       </c>
       <c r="D15">
-        <v>1.006584719226282</v>
+        <v>1.009607922610946</v>
       </c>
       <c r="E15">
-        <v>0.9878698972216251</v>
+        <v>0.9920531467349493</v>
       </c>
       <c r="F15">
-        <v>1.008363616229953</v>
+        <v>1.011450561053772</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042426137225177</v>
+        <v>1.044035417708185</v>
       </c>
       <c r="J15">
-        <v>1.00813754789034</v>
+        <v>1.011716912138054</v>
       </c>
       <c r="K15">
-        <v>1.021312273089288</v>
+        <v>1.024279960179112</v>
       </c>
       <c r="L15">
-        <v>1.002951030631172</v>
+        <v>1.007053730620019</v>
       </c>
       <c r="M15">
-        <v>1.023058450991056</v>
+        <v>1.02608897334216</v>
       </c>
       <c r="N15">
-        <v>1.009569218843337</v>
+        <v>1.013153666198842</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9832009884505923</v>
+        <v>0.9850521277192457</v>
       </c>
       <c r="D16">
-        <v>1.010701667369858</v>
+        <v>1.012198219562853</v>
       </c>
       <c r="E16">
-        <v>0.9921909417946787</v>
+        <v>0.9946905148241048</v>
       </c>
       <c r="F16">
-        <v>1.012864894320279</v>
+        <v>1.014392108293784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044346433838332</v>
+        <v>1.045143598106113</v>
       </c>
       <c r="J16">
-        <v>1.012018365566445</v>
+        <v>1.013792894917244</v>
       </c>
       <c r="K16">
-        <v>1.024844233057032</v>
+        <v>1.026314628232943</v>
       </c>
       <c r="L16">
-        <v>1.006665540224156</v>
+        <v>1.009119338172393</v>
       </c>
       <c r="M16">
-        <v>1.026969682945583</v>
+        <v>1.028470352303794</v>
       </c>
       <c r="N16">
-        <v>1.013455547725678</v>
+        <v>1.015232597111697</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9864128306200847</v>
+        <v>0.9871142983638619</v>
       </c>
       <c r="D17">
-        <v>1.013234295414847</v>
+        <v>1.013801752179754</v>
       </c>
       <c r="E17">
-        <v>0.99485008555481</v>
+        <v>0.9963249786737306</v>
       </c>
       <c r="F17">
-        <v>1.015634769983318</v>
+        <v>1.016213647057673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045522688854941</v>
+        <v>1.045825081085935</v>
       </c>
       <c r="J17">
-        <v>1.014403346269565</v>
+        <v>1.015076822430174</v>
       </c>
       <c r="K17">
-        <v>1.027014191430108</v>
+        <v>1.027572038208151</v>
       </c>
       <c r="L17">
-        <v>1.008949018004502</v>
+        <v>1.0103977526245</v>
       </c>
       <c r="M17">
-        <v>1.029374108140598</v>
+        <v>1.029943241620547</v>
       </c>
       <c r="N17">
-        <v>1.015843915374958</v>
+        <v>1.016518347948963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882635670769406</v>
+        <v>0.9883071518193606</v>
       </c>
       <c r="D18">
-        <v>1.014694318276788</v>
+        <v>1.014729589017346</v>
       </c>
       <c r="E18">
-        <v>0.996383400024897</v>
+        <v>0.9972713630156759</v>
       </c>
       <c r="F18">
-        <v>1.017231862026826</v>
+        <v>1.017267835272964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046198957446275</v>
+        <v>1.046217757462185</v>
       </c>
       <c r="J18">
-        <v>1.01577741448389</v>
+        <v>1.015819296956787</v>
       </c>
       <c r="K18">
-        <v>1.028264139213351</v>
+        <v>1.028298823658668</v>
       </c>
       <c r="L18">
-        <v>1.010264854080647</v>
+        <v>1.011137363100259</v>
       </c>
       <c r="M18">
-        <v>1.030759635638441</v>
+        <v>1.030795014745239</v>
       </c>
       <c r="N18">
-        <v>1.017219934923755</v>
+        <v>1.017261876874567</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9888908675201589</v>
+        <v>0.9887122191837767</v>
       </c>
       <c r="D19">
-        <v>1.015189295014262</v>
+        <v>1.015044707329217</v>
       </c>
       <c r="E19">
-        <v>0.996903285687649</v>
+        <v>0.9975928913092642</v>
       </c>
       <c r="F19">
-        <v>1.017773359172222</v>
+        <v>1.017625901820186</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046427915751599</v>
+        <v>1.046350841207321</v>
       </c>
       <c r="J19">
-        <v>1.016243110577308</v>
+        <v>1.016071388462369</v>
       </c>
       <c r="K19">
-        <v>1.028687727065545</v>
+        <v>1.028545527515781</v>
       </c>
       <c r="L19">
-        <v>1.010710855680164</v>
+        <v>1.011388537042412</v>
       </c>
       <c r="M19">
-        <v>1.031229257724892</v>
+        <v>1.031084220036547</v>
       </c>
       <c r="N19">
-        <v>1.017686292359042</v>
+        <v>1.017514326379003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9860705984227707</v>
+        <v>0.9868940853405553</v>
       </c>
       <c r="D20">
-        <v>1.012964365235234</v>
+        <v>1.013630485982054</v>
       </c>
       <c r="E20">
-        <v>0.9945666343354359</v>
+        <v>0.9961503415170722</v>
       </c>
       <c r="F20">
-        <v>1.01533952269836</v>
+        <v>1.016019075081835</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045397511847667</v>
+        <v>1.04575246523836</v>
       </c>
       <c r="J20">
-        <v>1.014149240031836</v>
+        <v>1.014939736810699</v>
       </c>
       <c r="K20">
-        <v>1.026783019153421</v>
+        <v>1.027437820508024</v>
       </c>
       <c r="L20">
-        <v>1.008705700522979</v>
+        <v>1.010261221981096</v>
       </c>
       <c r="M20">
-        <v>1.029117903215483</v>
+        <v>1.029785977733632</v>
       </c>
       <c r="N20">
-        <v>1.015589448277225</v>
+        <v>1.016381067652185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.976627789901178</v>
+        <v>0.9808638207374618</v>
       </c>
       <c r="D21">
-        <v>1.005523334910972</v>
+        <v>1.008943456177713</v>
       </c>
       <c r="E21">
-        <v>0.9867561879357138</v>
+        <v>0.9913771613700385</v>
       </c>
       <c r="F21">
-        <v>1.007203401960136</v>
+        <v>1.010696162718871</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041929482406308</v>
+        <v>1.043749734304638</v>
       </c>
       <c r="J21">
-        <v>1.007136271056709</v>
+        <v>1.011183992777432</v>
       </c>
       <c r="K21">
-        <v>1.02040081617081</v>
+        <v>1.02375735014718</v>
       </c>
       <c r="L21">
-        <v>1.00199288873914</v>
+        <v>1.006523758484659</v>
       </c>
       <c r="M21">
-        <v>1.022049576825675</v>
+        <v>1.025477687496522</v>
       </c>
       <c r="N21">
-        <v>1.008566520081754</v>
+        <v>1.012619990031601</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9704632178622133</v>
+        <v>0.9769759588093138</v>
       </c>
       <c r="D22">
-        <v>1.000673214568553</v>
+        <v>1.00592485473198</v>
       </c>
       <c r="E22">
-        <v>0.9816683553701111</v>
+        <v>0.9883089600089668</v>
       </c>
       <c r="F22">
-        <v>1.001902902058763</v>
+        <v>1.00726982833151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039652095437333</v>
+        <v>1.04244495300975</v>
       </c>
       <c r="J22">
-        <v>1.002556868051968</v>
+        <v>1.008761050443968</v>
       </c>
       <c r="K22">
-        <v>1.016231346733593</v>
+        <v>1.021379845795851</v>
       </c>
       <c r="L22">
-        <v>0.9976119278882987</v>
+        <v>1.004115631685903</v>
       </c>
       <c r="M22">
-        <v>1.017436756107432</v>
+        <v>1.022698631200122</v>
       </c>
       <c r="N22">
-        <v>1.003980613799482</v>
+        <v>1.010193606842108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9737539525115663</v>
+        <v>0.9790464561822664</v>
       </c>
       <c r="D23">
-        <v>1.003261489028243</v>
+        <v>1.007532085807306</v>
       </c>
       <c r="E23">
-        <v>0.9843832097644039</v>
+        <v>0.9899420516481235</v>
       </c>
       <c r="F23">
-        <v>1.004731275712406</v>
+        <v>1.009093990790256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040869005734503</v>
+        <v>1.043141072214548</v>
       </c>
       <c r="J23">
-        <v>1.005001476649063</v>
+        <v>1.010051522030973</v>
       </c>
       <c r="K23">
-        <v>1.01845729036367</v>
+        <v>1.022646403369041</v>
       </c>
       <c r="L23">
-        <v>0.9999503668485978</v>
+        <v>1.005397926535356</v>
       </c>
       <c r="M23">
-        <v>1.019898930947736</v>
+        <v>1.024178732023926</v>
       </c>
       <c r="N23">
-        <v>1.006428694021186</v>
+        <v>1.011485911046786</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9862253082552582</v>
+        <v>0.9869936208865467</v>
       </c>
       <c r="D24">
-        <v>1.013086388093636</v>
+        <v>1.013707896864575</v>
       </c>
       <c r="E24">
-        <v>0.9946947683141095</v>
+        <v>0.9962292740278053</v>
       </c>
       <c r="F24">
-        <v>1.015472989309583</v>
+        <v>1.016107019332219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045454104210323</v>
+        <v>1.045785292090225</v>
       </c>
       <c r="J24">
-        <v>1.014264112221256</v>
+        <v>1.015001699697911</v>
       </c>
       <c r="K24">
-        <v>1.02688752447773</v>
+        <v>1.027498488192638</v>
       </c>
       <c r="L24">
-        <v>1.00881569474172</v>
+        <v>1.010322933013562</v>
       </c>
       <c r="M24">
-        <v>1.029233723351324</v>
+        <v>1.029857061148887</v>
       </c>
       <c r="N24">
-        <v>1.01570448359833</v>
+        <v>1.016443118533805</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9998165336566081</v>
+        <v>0.9958272806128416</v>
       </c>
       <c r="D25">
-        <v>1.023818386198374</v>
+        <v>1.020583128163275</v>
       </c>
       <c r="E25">
-        <v>1.005972111140428</v>
+        <v>1.003253631863208</v>
       </c>
       <c r="F25">
-        <v>1.027217939055885</v>
+        <v>1.023922377873383</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050392702115143</v>
+        <v>1.048665550087949</v>
       </c>
       <c r="J25">
-        <v>1.02435007375361</v>
+        <v>1.02049589407446</v>
       </c>
       <c r="K25">
-        <v>1.036057871194295</v>
+        <v>1.032870104614324</v>
       </c>
       <c r="L25">
-        <v>1.018478419825614</v>
+        <v>1.015801648488295</v>
       </c>
       <c r="M25">
-        <v>1.03940792950585</v>
+        <v>1.036160342657347</v>
       </c>
       <c r="N25">
-        <v>1.025804768352936</v>
+        <v>1.021945115296561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002590441470383</v>
+        <v>1.000291239211041</v>
       </c>
       <c r="D2">
-        <v>1.025852283176114</v>
+        <v>1.025364680961948</v>
       </c>
       <c r="E2">
-        <v>1.008657692282398</v>
+        <v>1.006739603111817</v>
       </c>
       <c r="F2">
-        <v>1.029919124431271</v>
+        <v>1.029059786081586</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05082124226031</v>
+        <v>1.050541519918112</v>
       </c>
       <c r="J2">
-        <v>1.024693947976362</v>
+        <v>1.022463242851357</v>
       </c>
       <c r="K2">
-        <v>1.03696283080481</v>
+        <v>1.036481603154991</v>
       </c>
       <c r="L2">
-        <v>1.019997715148618</v>
+        <v>1.018105836342685</v>
       </c>
       <c r="M2">
-        <v>1.040976799298217</v>
+        <v>1.040128589569296</v>
       </c>
       <c r="N2">
-        <v>1.026149130916527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011463275525129</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036865911654804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007350985594774</v>
+        <v>1.003990421242382</v>
       </c>
       <c r="D3">
-        <v>1.029562948554286</v>
+        <v>1.027935650757837</v>
       </c>
       <c r="E3">
-        <v>1.012475557796507</v>
+        <v>1.009631573922564</v>
       </c>
       <c r="F3">
-        <v>1.03414656397262</v>
+        <v>1.032200382225474</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052308894103102</v>
+        <v>1.051422751933335</v>
       </c>
       <c r="J3">
-        <v>1.027643241726208</v>
+        <v>1.024372891319366</v>
       </c>
       <c r="K3">
-        <v>1.039831038931789</v>
+        <v>1.038223144152486</v>
       </c>
       <c r="L3">
-        <v>1.022951261780156</v>
+        <v>1.02014268258247</v>
       </c>
       <c r="M3">
-        <v>1.044360408211126</v>
+        <v>1.042437186224698</v>
       </c>
       <c r="N3">
-        <v>1.029102613001787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012100974341303</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038094667940154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010366067286486</v>
+        <v>1.00634274596853</v>
       </c>
       <c r="D4">
-        <v>1.031913473183661</v>
+        <v>1.02957232979889</v>
       </c>
       <c r="E4">
-        <v>1.014899725664253</v>
+        <v>1.011476594944683</v>
       </c>
       <c r="F4">
-        <v>1.036826563949265</v>
+        <v>1.034200614096512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053236981420977</v>
+        <v>1.051970350662971</v>
       </c>
       <c r="J4">
-        <v>1.029508274248442</v>
+        <v>1.025585583580748</v>
       </c>
       <c r="K4">
-        <v>1.041641403696828</v>
+        <v>1.039326477713385</v>
       </c>
       <c r="L4">
-        <v>1.024821589520415</v>
+        <v>1.021438453118691</v>
       </c>
       <c r="M4">
-        <v>1.046499948211182</v>
+        <v>1.043903072951584</v>
       </c>
       <c r="N4">
-        <v>1.030970294084125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01250597016851</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038875719937487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01161855039699</v>
+        <v>1.007324598235833</v>
       </c>
       <c r="D5">
-        <v>1.032889926446424</v>
+        <v>1.030257577700407</v>
       </c>
       <c r="E5">
-        <v>1.015908162750291</v>
+        <v>1.012248408843799</v>
       </c>
       <c r="F5">
-        <v>1.037940411263819</v>
+        <v>1.03503715222765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053619074942955</v>
+        <v>1.052197054200285</v>
       </c>
       <c r="J5">
-        <v>1.030282286748477</v>
+        <v>1.026092497668612</v>
       </c>
       <c r="K5">
-        <v>1.042391897708917</v>
+        <v>1.039788236709907</v>
       </c>
       <c r="L5">
-        <v>1.025598424341586</v>
+        <v>1.021980269578753</v>
       </c>
       <c r="M5">
-        <v>1.047387840849981</v>
+        <v>1.044515855208245</v>
       </c>
       <c r="N5">
-        <v>1.03174540577069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01267553887787</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039209401704008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011827981093471</v>
+        <v>1.007491975518941</v>
       </c>
       <c r="D6">
-        <v>1.03305320164525</v>
+        <v>1.030376497005699</v>
       </c>
       <c r="E6">
-        <v>1.016076868242823</v>
+        <v>1.012380423865056</v>
       </c>
       <c r="F6">
-        <v>1.038126691653855</v>
+        <v>1.035180938271478</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053682761986847</v>
+        <v>1.052237039525624</v>
       </c>
       <c r="J6">
-        <v>1.03041166703549</v>
+        <v>1.026180299722647</v>
       </c>
       <c r="K6">
-        <v>1.042517297429674</v>
+        <v>1.03986962946422</v>
       </c>
       <c r="L6">
-        <v>1.025728313118395</v>
+        <v>1.022073689154047</v>
       </c>
       <c r="M6">
-        <v>1.047536253912432</v>
+        <v>1.044622083847717</v>
       </c>
       <c r="N6">
-        <v>1.03187496979255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012705239011743</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039275706736714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010382861448721</v>
+        <v>1.006364133626008</v>
       </c>
       <c r="D7">
-        <v>1.031926566101342</v>
+        <v>1.029592800437653</v>
       </c>
       <c r="E7">
-        <v>1.014913241926701</v>
+        <v>1.011494374368694</v>
       </c>
       <c r="F7">
-        <v>1.036841497048154</v>
+        <v>1.034221860400918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053242118454823</v>
+        <v>1.051979359020583</v>
       </c>
       <c r="J7">
-        <v>1.029518655691446</v>
+        <v>1.02560040177903</v>
       </c>
       <c r="K7">
-        <v>1.04165147300349</v>
+        <v>1.039343832361331</v>
       </c>
       <c r="L7">
-        <v>1.024832006348874</v>
+        <v>1.021453068394101</v>
       </c>
       <c r="M7">
-        <v>1.046511857259421</v>
+        <v>1.043921214402598</v>
       </c>
       <c r="N7">
-        <v>1.030980690269967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012511821168204</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038908126344027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004213169992693</v>
+        <v>1.00156024364036</v>
       </c>
       <c r="D8">
-        <v>1.02711702142502</v>
+        <v>1.026252975252802</v>
       </c>
       <c r="E8">
-        <v>1.009957773623163</v>
+        <v>1.007731677429792</v>
       </c>
       <c r="F8">
-        <v>1.031359562222423</v>
+        <v>1.030140136027869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051331267375021</v>
+        <v>1.050851313030265</v>
       </c>
       <c r="J8">
-        <v>1.025699859077458</v>
+        <v>1.023123283154642</v>
       </c>
       <c r="K8">
-        <v>1.037941788289411</v>
+        <v>1.037088698592504</v>
       </c>
       <c r="L8">
-        <v>1.021004529021658</v>
+        <v>1.018807926921141</v>
       </c>
       <c r="M8">
-        <v>1.042130864014198</v>
+        <v>1.040926748942015</v>
       </c>
       <c r="N8">
-        <v>1.027156470526766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01168484323347</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037318132481834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9928135946154275</v>
+        <v>0.9927522083356153</v>
       </c>
       <c r="D9">
-        <v>1.018236529393951</v>
+        <v>1.020136896392533</v>
       </c>
       <c r="E9">
-        <v>1.0008529142051</v>
+        <v>1.000880176576373</v>
       </c>
       <c r="F9">
-        <v>1.02125382414309</v>
+        <v>1.022678131922256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047690587168329</v>
+        <v>1.04867767075677</v>
       </c>
       <c r="J9">
-        <v>1.018622700829397</v>
+        <v>1.018563526699762</v>
       </c>
       <c r="K9">
-        <v>1.031040501814523</v>
+        <v>1.032911501493323</v>
       </c>
       <c r="L9">
-        <v>1.013932168611594</v>
+        <v>1.013958989652713</v>
       </c>
       <c r="M9">
-        <v>1.03401123388868</v>
+        <v>1.035413683642205</v>
       </c>
       <c r="N9">
-        <v>1.020069261902231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010161409770113</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034361376166906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9848177116559248</v>
+        <v>0.9866405989236476</v>
       </c>
       <c r="D10">
-        <v>1.012015979273054</v>
+        <v>1.015908806378811</v>
       </c>
       <c r="E10">
-        <v>0.9945048474799533</v>
+        <v>0.9961620903471098</v>
       </c>
       <c r="F10">
-        <v>1.014185119785239</v>
+        <v>1.017522228773834</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045065924661092</v>
+        <v>1.047106503372536</v>
       </c>
       <c r="J10">
-        <v>1.013646918157199</v>
+        <v>1.015394470694244</v>
       </c>
       <c r="K10">
-        <v>1.026171618543331</v>
+        <v>1.029996642899945</v>
       </c>
       <c r="L10">
-        <v>1.008974032514725</v>
+        <v>1.0106009869213</v>
       </c>
       <c r="M10">
-        <v>1.028302895236493</v>
+        <v>1.031582160429221</v>
       </c>
       <c r="N10">
-        <v>1.01508641304791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009103345232606</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032317245391422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9812513581274563</v>
+        <v>0.9839417256156038</v>
       </c>
       <c r="D11">
-        <v>1.009244492930681</v>
+        <v>1.014051734799568</v>
       </c>
       <c r="E11">
-        <v>0.99168338926769</v>
+        <v>0.9940889698012874</v>
       </c>
       <c r="F11">
-        <v>1.011037934781388</v>
+        <v>1.015254164157578</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043879233231598</v>
+        <v>1.046402289038132</v>
       </c>
       <c r="J11">
-        <v>1.011425451409942</v>
+        <v>1.013998150066075</v>
       </c>
       <c r="K11">
-        <v>1.023994152325611</v>
+        <v>1.028713433625535</v>
       </c>
       <c r="L11">
-        <v>1.006763867621584</v>
+        <v>1.009123227110514</v>
       </c>
       <c r="M11">
-        <v>1.025754651260969</v>
+        <v>1.029894030909958</v>
       </c>
       <c r="N11">
-        <v>1.012861791563065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008638608958267</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031442941727738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9799100838660108</v>
+        <v>0.9829240419925913</v>
       </c>
       <c r="D12">
-        <v>1.008202709210808</v>
+        <v>1.013348683731421</v>
       </c>
       <c r="E12">
-        <v>0.9906238328722871</v>
+        <v>0.9933078605718599</v>
       </c>
       <c r="F12">
-        <v>1.009855238370368</v>
+        <v>1.014397998510075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043430593635963</v>
+        <v>1.046132253065293</v>
       </c>
       <c r="J12">
-        <v>1.010589711118419</v>
+        <v>1.013469090908123</v>
       </c>
       <c r="K12">
-        <v>1.023174427675674</v>
+        <v>1.02822453588334</v>
       </c>
       <c r="L12">
-        <v>1.005932897353092</v>
+        <v>1.008564404379112</v>
       </c>
       <c r="M12">
-        <v>1.024796032250791</v>
+        <v>1.029254458180048</v>
       </c>
       <c r="N12">
-        <v>1.012024864424467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008461811588871</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031097272015915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9801985574441259</v>
+        <v>0.9831417247522168</v>
       </c>
       <c r="D13">
-        <v>1.008426743772672</v>
+        <v>1.013498371045577</v>
       </c>
       <c r="E13">
-        <v>0.9908516440025885</v>
+        <v>0.9934747211422337</v>
       </c>
       <c r="F13">
-        <v>1.010109562363299</v>
+        <v>1.014580740182571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043527188763335</v>
+        <v>1.046189658133428</v>
       </c>
       <c r="J13">
-        <v>1.01076946842796</v>
+        <v>1.013581798141231</v>
       </c>
       <c r="K13">
-        <v>1.023350764157723</v>
+        <v>1.028328272141433</v>
       </c>
       <c r="L13">
-        <v>1.006111605216933</v>
+        <v>1.008683553987576</v>
       </c>
       <c r="M13">
-        <v>1.025002216314727</v>
+        <v>1.029390713389984</v>
       </c>
       <c r="N13">
-        <v>1.012204877010006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008499329575349</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031168111992768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9811408316932568</v>
+        <v>0.9838573510787488</v>
       </c>
       <c r="D14">
-        <v>1.009158634040004</v>
+        <v>1.013993147286792</v>
       </c>
       <c r="E14">
-        <v>0.9915960451767124</v>
+        <v>0.9940241144173786</v>
       </c>
       <c r="F14">
-        <v>1.010940456340186</v>
+        <v>1.015183011609423</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04384231053487</v>
+        <v>1.046379750522141</v>
       </c>
       <c r="J14">
-        <v>1.011356588093695</v>
+        <v>1.013954090465583</v>
       </c>
       <c r="K14">
-        <v>1.023926619465545</v>
+        <v>1.028672540934022</v>
       </c>
       <c r="L14">
-        <v>1.006695386793868</v>
+        <v>1.009076732130922</v>
       </c>
       <c r="M14">
-        <v>1.025675661696371</v>
+        <v>1.029840769484029</v>
       </c>
       <c r="N14">
-        <v>1.01279283045301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008623823396386</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031412955692041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9817191728830715</v>
+        <v>0.9842990764158056</v>
       </c>
       <c r="D15">
-        <v>1.009607922610946</v>
+        <v>1.014299968686487</v>
       </c>
       <c r="E15">
-        <v>0.9920531467349493</v>
+        <v>0.9943637245186502</v>
       </c>
       <c r="F15">
-        <v>1.011450561053772</v>
+        <v>1.015555591414751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044035417708185</v>
+        <v>1.046497707686256</v>
       </c>
       <c r="J15">
-        <v>1.011716912138054</v>
+        <v>1.01418479891824</v>
       </c>
       <c r="K15">
-        <v>1.024279960179112</v>
+        <v>1.028886696470895</v>
       </c>
       <c r="L15">
-        <v>1.007053730620019</v>
+        <v>1.009320197663856</v>
       </c>
       <c r="M15">
-        <v>1.02608897334216</v>
+        <v>1.030119663510669</v>
       </c>
       <c r="N15">
-        <v>1.013153666198842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00870125971642</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031570273266069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850521277192457</v>
+        <v>0.986836713207335</v>
       </c>
       <c r="D16">
-        <v>1.012198219562853</v>
+        <v>1.016055488682739</v>
       </c>
       <c r="E16">
-        <v>0.9946905148241048</v>
+        <v>0.9963155628962269</v>
       </c>
       <c r="F16">
-        <v>1.014392108293784</v>
+        <v>1.017693346653399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045143598106113</v>
+        <v>1.047165322456879</v>
       </c>
       <c r="J16">
-        <v>1.013792894917244</v>
+        <v>1.015504011279019</v>
       </c>
       <c r="K16">
-        <v>1.026314628232943</v>
+        <v>1.030104938791577</v>
       </c>
       <c r="L16">
-        <v>1.009119338172393</v>
+        <v>1.010714786771698</v>
       </c>
       <c r="M16">
-        <v>1.028470352303794</v>
+        <v>1.031714563572011</v>
       </c>
       <c r="N16">
-        <v>1.015232597111697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009142258363809</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032434802193615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9871142983638619</v>
+        <v>0.9884114335147695</v>
       </c>
       <c r="D17">
-        <v>1.013801752179754</v>
+        <v>1.017145942913893</v>
       </c>
       <c r="E17">
-        <v>0.9963249786737306</v>
+        <v>0.9975291684196987</v>
       </c>
       <c r="F17">
-        <v>1.016213647057673</v>
+        <v>1.019021437119767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045825081085935</v>
+        <v>1.047575772223385</v>
       </c>
       <c r="J17">
-        <v>1.015076822430174</v>
+        <v>1.016322344485223</v>
       </c>
       <c r="K17">
-        <v>1.027572038208151</v>
+        <v>1.030859875233094</v>
       </c>
       <c r="L17">
-        <v>1.0103977526245</v>
+        <v>1.011580659405299</v>
       </c>
       <c r="M17">
-        <v>1.029943241620547</v>
+        <v>1.032703973655047</v>
       </c>
       <c r="N17">
-        <v>1.016518347948963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009415834691426</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032971171777687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9883071518193606</v>
+        <v>0.9893182671540156</v>
       </c>
       <c r="D18">
-        <v>1.014729589017346</v>
+        <v>1.017770662314053</v>
       </c>
       <c r="E18">
-        <v>0.9972713630156759</v>
+        <v>0.9982280991754787</v>
       </c>
       <c r="F18">
-        <v>1.017267835272964</v>
+        <v>1.019784849635639</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046217757462185</v>
+        <v>1.047808263201962</v>
       </c>
       <c r="J18">
-        <v>1.015819296956787</v>
+        <v>1.016790981112421</v>
       </c>
       <c r="K18">
-        <v>1.028298823658668</v>
+        <v>1.031289542678869</v>
       </c>
       <c r="L18">
-        <v>1.011137363100259</v>
+        <v>1.012077488190235</v>
       </c>
       <c r="M18">
-        <v>1.030795014745239</v>
+        <v>1.033270591562274</v>
       </c>
       <c r="N18">
-        <v>1.017261876874567</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00957177153048</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033263275309101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9887122191837767</v>
+        <v>0.9896308420627403</v>
       </c>
       <c r="D19">
-        <v>1.015044707329217</v>
+        <v>1.017988853941116</v>
       </c>
       <c r="E19">
-        <v>0.9975928913092642</v>
+        <v>0.9984697694510618</v>
       </c>
       <c r="F19">
-        <v>1.017625901820186</v>
+        <v>1.020049564574298</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046350841207321</v>
+        <v>1.047890089857903</v>
       </c>
       <c r="J19">
-        <v>1.016071388462369</v>
+        <v>1.016954433812356</v>
       </c>
       <c r="K19">
-        <v>1.028545527515781</v>
+        <v>1.031441218008879</v>
       </c>
       <c r="L19">
-        <v>1.011388537042412</v>
+        <v>1.012250283479449</v>
       </c>
       <c r="M19">
-        <v>1.031084220036547</v>
+        <v>1.033468226360096</v>
       </c>
       <c r="N19">
-        <v>1.017514326379003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009626737044762</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033376935040445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868940853405553</v>
+        <v>0.988242666965777</v>
       </c>
       <c r="D20">
-        <v>1.013630485982054</v>
+        <v>1.017028759088484</v>
       </c>
       <c r="E20">
-        <v>0.9961503415170722</v>
+        <v>0.9973989531519694</v>
       </c>
       <c r="F20">
-        <v>1.016019075081835</v>
+        <v>1.018878899358419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04575246523836</v>
+        <v>1.047531736551125</v>
       </c>
       <c r="J20">
-        <v>1.014939736810699</v>
+        <v>1.016234460379646</v>
       </c>
       <c r="K20">
-        <v>1.027437820508024</v>
+        <v>1.030778644372747</v>
       </c>
       <c r="L20">
-        <v>1.010261221981096</v>
+        <v>1.011487693545265</v>
       </c>
       <c r="M20">
-        <v>1.029785977733632</v>
+        <v>1.032597714913841</v>
       </c>
       <c r="N20">
-        <v>1.016381067652185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009386395932665</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032912397110521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9808638207374618</v>
+        <v>0.9836528780983536</v>
       </c>
       <c r="D21">
-        <v>1.008943456177713</v>
+        <v>1.013855497135717</v>
       </c>
       <c r="E21">
-        <v>0.9913771613700385</v>
+        <v>0.9938679684190627</v>
       </c>
       <c r="F21">
-        <v>1.010696162718871</v>
+        <v>1.015012875248742</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043749734304638</v>
+        <v>1.04632803383542</v>
       </c>
       <c r="J21">
-        <v>1.011183992777432</v>
+        <v>1.013850330049496</v>
       </c>
       <c r="K21">
-        <v>1.02375735014718</v>
+        <v>1.02857904297555</v>
       </c>
       <c r="L21">
-        <v>1.006523758484659</v>
+        <v>1.008966452789124</v>
       </c>
       <c r="M21">
-        <v>1.025477687496522</v>
+        <v>1.029715298872564</v>
       </c>
       <c r="N21">
-        <v>1.012619990031601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008589937866845</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031360429506927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9769759588093138</v>
+        <v>0.9807023904992036</v>
       </c>
       <c r="D22">
-        <v>1.00592485473198</v>
+        <v>1.011814694805619</v>
       </c>
       <c r="E22">
-        <v>0.9883089600089668</v>
+        <v>0.9916051757638673</v>
       </c>
       <c r="F22">
-        <v>1.00726982833151</v>
+        <v>1.012530424002722</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04244495300975</v>
+        <v>1.045538562248705</v>
       </c>
       <c r="J22">
-        <v>1.008761050443968</v>
+        <v>1.01231357919969</v>
       </c>
       <c r="K22">
-        <v>1.021379845795851</v>
+        <v>1.02715567830269</v>
       </c>
       <c r="L22">
-        <v>1.004115631685903</v>
+        <v>1.007344790518002</v>
       </c>
       <c r="M22">
-        <v>1.022698631200122</v>
+        <v>1.027857671692518</v>
       </c>
       <c r="N22">
-        <v>1.010193606842108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008075596039075</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030340472206388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790464561822664</v>
+        <v>0.9822649186348912</v>
       </c>
       <c r="D23">
-        <v>1.007532085807306</v>
+        <v>1.012890632471889</v>
       </c>
       <c r="E23">
-        <v>0.9899420516481235</v>
+        <v>0.9928016813070542</v>
       </c>
       <c r="F23">
-        <v>1.009093990790256</v>
+        <v>1.013842220586349</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043141072214548</v>
+        <v>1.045954793191222</v>
       </c>
       <c r="J23">
-        <v>1.010051522030973</v>
+        <v>1.013124371020191</v>
       </c>
       <c r="K23">
-        <v>1.022646403369041</v>
+        <v>1.027903976761052</v>
       </c>
       <c r="L23">
-        <v>1.005397926535356</v>
+        <v>1.008200946859181</v>
       </c>
       <c r="M23">
-        <v>1.024178732023926</v>
+        <v>1.02883777935956</v>
       </c>
       <c r="N23">
-        <v>1.011485911046786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008345982517371</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030859872963404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869936208865467</v>
+        <v>0.9883070397473291</v>
       </c>
       <c r="D24">
-        <v>1.013707896864575</v>
+        <v>1.017065921637021</v>
       </c>
       <c r="E24">
-        <v>0.9962292740278053</v>
+        <v>0.9974469523024471</v>
       </c>
       <c r="F24">
-        <v>1.016107019332219</v>
+        <v>1.018929262898177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045785292090225</v>
+        <v>1.047543351107003</v>
       </c>
       <c r="J24">
-        <v>1.015001699697911</v>
+        <v>1.016262751036155</v>
       </c>
       <c r="K24">
-        <v>1.027498488192638</v>
+        <v>1.030799825269523</v>
       </c>
       <c r="L24">
-        <v>1.010322933013562</v>
+        <v>1.011519051150869</v>
       </c>
       <c r="M24">
-        <v>1.029857061148887</v>
+        <v>1.032631918715155</v>
       </c>
       <c r="N24">
-        <v>1.016443118533805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009394320677208</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032899858801804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9958272806128416</v>
+        <v>0.9950830824523034</v>
       </c>
       <c r="D25">
-        <v>1.020583128163275</v>
+        <v>1.021761388632624</v>
       </c>
       <c r="E25">
-        <v>1.003253631863208</v>
+        <v>1.002688972521016</v>
       </c>
       <c r="F25">
-        <v>1.023922377873383</v>
+        <v>1.024653797037751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048665550087949</v>
+        <v>1.049269984225608</v>
       </c>
       <c r="J25">
-        <v>1.02049589407446</v>
+        <v>1.01977706114166</v>
       </c>
       <c r="K25">
-        <v>1.032870104614324</v>
+        <v>1.034031024786129</v>
       </c>
       <c r="L25">
-        <v>1.015801648488295</v>
+        <v>1.015245688578345</v>
       </c>
       <c r="M25">
-        <v>1.036160342657347</v>
+        <v>1.036881080562145</v>
       </c>
       <c r="N25">
-        <v>1.021945115296561</v>
+        <v>1.010568360353966</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035181624285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000291239211041</v>
+        <v>1.000167453767012</v>
       </c>
       <c r="D2">
-        <v>1.025364680961948</v>
+        <v>1.024779340303171</v>
       </c>
       <c r="E2">
-        <v>1.006739603111817</v>
+        <v>1.006635591504857</v>
       </c>
       <c r="F2">
-        <v>1.029059786081586</v>
+        <v>1.028587751515536</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050541519918112</v>
+        <v>1.05023491115458</v>
       </c>
       <c r="J2">
-        <v>1.022463242851357</v>
+        <v>1.022343157474179</v>
       </c>
       <c r="K2">
-        <v>1.036481603154991</v>
+        <v>1.03590392486317</v>
       </c>
       <c r="L2">
-        <v>1.018105836342685</v>
+        <v>1.018003249632833</v>
       </c>
       <c r="M2">
-        <v>1.040128589569296</v>
+        <v>1.03966267785922</v>
       </c>
       <c r="N2">
-        <v>1.011463275525129</v>
+        <v>1.013175875104705</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036865911654804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036466235308998</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021662002265888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003990421242382</v>
+        <v>1.003720677742583</v>
       </c>
       <c r="D3">
-        <v>1.027935650757837</v>
+        <v>1.027160769998507</v>
       </c>
       <c r="E3">
-        <v>1.009631573922564</v>
+        <v>1.009400695430857</v>
       </c>
       <c r="F3">
-        <v>1.032200382225474</v>
+        <v>1.031554956443143</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051422751933335</v>
+        <v>1.051015422304267</v>
       </c>
       <c r="J3">
-        <v>1.024372891319366</v>
+        <v>1.024110424679279</v>
       </c>
       <c r="K3">
-        <v>1.038223144152486</v>
+        <v>1.03745752945088</v>
       </c>
       <c r="L3">
-        <v>1.02014268258247</v>
+        <v>1.019914689203436</v>
       </c>
       <c r="M3">
-        <v>1.042437186224698</v>
+        <v>1.041799398445297</v>
       </c>
       <c r="N3">
-        <v>1.012100974341303</v>
+        <v>1.013645169871911</v>
       </c>
       <c r="Q3">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R3">
-        <v>1.038094667940154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037561825575392</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021972908121641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00634274596853</v>
+        <v>1.005981142405069</v>
       </c>
       <c r="D4">
-        <v>1.02957232979889</v>
+        <v>1.028677591311556</v>
       </c>
       <c r="E4">
-        <v>1.011476594944683</v>
+        <v>1.011165745155939</v>
       </c>
       <c r="F4">
-        <v>1.034200614096512</v>
+        <v>1.033445712515274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051970350662971</v>
+        <v>1.051499215272079</v>
       </c>
       <c r="J4">
-        <v>1.025585583580748</v>
+        <v>1.025233077605546</v>
       </c>
       <c r="K4">
-        <v>1.039326477713385</v>
+        <v>1.038441797817577</v>
       </c>
       <c r="L4">
-        <v>1.021438453118691</v>
+        <v>1.021131251756641</v>
       </c>
       <c r="M4">
-        <v>1.043903072951584</v>
+        <v>1.043156563298629</v>
       </c>
       <c r="N4">
-        <v>1.01250597016851</v>
+        <v>1.01394334645994</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038875719937487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038258769024511</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022167437833387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007324598235833</v>
+        <v>1.006924885984303</v>
       </c>
       <c r="D5">
-        <v>1.030257577700407</v>
+        <v>1.029313042195149</v>
       </c>
       <c r="E5">
-        <v>1.012248408843799</v>
+        <v>1.011904352479474</v>
       </c>
       <c r="F5">
-        <v>1.03503715222765</v>
+        <v>1.034236796196474</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052197054200285</v>
+        <v>1.051699382102978</v>
       </c>
       <c r="J5">
-        <v>1.026092497668612</v>
+        <v>1.025702542484439</v>
       </c>
       <c r="K5">
-        <v>1.039788236709907</v>
+        <v>1.038854038826541</v>
       </c>
       <c r="L5">
-        <v>1.021980269578753</v>
+        <v>1.021640143074409</v>
       </c>
       <c r="M5">
-        <v>1.044515855208245</v>
+        <v>1.043724158333732</v>
       </c>
       <c r="N5">
-        <v>1.01267553887787</v>
+        <v>1.014068258805206</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039209401704008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038558147567532</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022248664920242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007491975518941</v>
+        <v>1.007085799836699</v>
       </c>
       <c r="D6">
-        <v>1.030376497005699</v>
+        <v>1.029423574435337</v>
       </c>
       <c r="E6">
-        <v>1.012380423865056</v>
+        <v>1.01203073004095</v>
       </c>
       <c r="F6">
-        <v>1.035180938271478</v>
+        <v>1.034372918449487</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052237039525624</v>
+        <v>1.051734896043188</v>
       </c>
       <c r="J6">
-        <v>1.026180299722647</v>
+        <v>1.025783988102768</v>
       </c>
       <c r="K6">
-        <v>1.03986962946422</v>
+        <v>1.038927088855688</v>
       </c>
       <c r="L6">
-        <v>1.022073689154047</v>
+        <v>1.021727971161838</v>
       </c>
       <c r="M6">
-        <v>1.044622083847717</v>
+        <v>1.043822765863686</v>
       </c>
       <c r="N6">
-        <v>1.012705239011743</v>
+        <v>1.014090184489923</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039275706736714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038619421945443</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022263444228335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006364133626008</v>
+        <v>1.006009194369168</v>
       </c>
       <c r="D7">
-        <v>1.029592800437653</v>
+        <v>1.028702319330703</v>
       </c>
       <c r="E7">
-        <v>1.011494374368694</v>
+        <v>1.011189454775609</v>
       </c>
       <c r="F7">
-        <v>1.034221860400918</v>
+        <v>1.033471624167608</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051979359020583</v>
+        <v>1.051510520575304</v>
       </c>
       <c r="J7">
-        <v>1.02560040177903</v>
+        <v>1.025254388587168</v>
       </c>
       <c r="K7">
-        <v>1.039343832361331</v>
+        <v>1.038463358104716</v>
       </c>
       <c r="L7">
-        <v>1.021453068394101</v>
+        <v>1.021151726244329</v>
       </c>
       <c r="M7">
-        <v>1.043921214402598</v>
+        <v>1.043179314989024</v>
       </c>
       <c r="N7">
-        <v>1.012511821168204</v>
+        <v>1.013975566822874</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038908126344027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038296147097232</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022173284359185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00156024364036</v>
+        <v>1.001409088352209</v>
       </c>
       <c r="D8">
-        <v>1.026252975252802</v>
+        <v>1.025618427081262</v>
       </c>
       <c r="E8">
-        <v>1.007731677429792</v>
+        <v>1.007604365376157</v>
       </c>
       <c r="F8">
-        <v>1.030140136027869</v>
+        <v>1.029625472938181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050851313030265</v>
+        <v>1.050518679806939</v>
       </c>
       <c r="J8">
-        <v>1.023123283154642</v>
+        <v>1.02297649476435</v>
       </c>
       <c r="K8">
-        <v>1.037088698592504</v>
+        <v>1.036462211445687</v>
       </c>
       <c r="L8">
-        <v>1.018807926921141</v>
+        <v>1.018682306600954</v>
       </c>
       <c r="M8">
-        <v>1.040926748942015</v>
+        <v>1.040418561541411</v>
       </c>
       <c r="N8">
-        <v>1.01168484323347</v>
+        <v>1.013423556040922</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037318132481834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036886208854632</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021776983886651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9927522083356153</v>
+        <v>0.9929579511557914</v>
       </c>
       <c r="D9">
-        <v>1.020136896392533</v>
+        <v>1.019959845280574</v>
       </c>
       <c r="E9">
-        <v>1.000880176576373</v>
+        <v>1.001062273522274</v>
       </c>
       <c r="F9">
-        <v>1.022678131922256</v>
+        <v>1.022583533056056</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04867767075677</v>
+        <v>1.048587483105004</v>
       </c>
       <c r="J9">
-        <v>1.018563526699762</v>
+        <v>1.018761856768857</v>
       </c>
       <c r="K9">
-        <v>1.032911501493323</v>
+        <v>1.032737180538289</v>
       </c>
       <c r="L9">
-        <v>1.013958989652713</v>
+        <v>1.014138139558625</v>
       </c>
       <c r="M9">
-        <v>1.035413683642205</v>
+        <v>1.035320534121517</v>
       </c>
       <c r="N9">
-        <v>1.010161409770113</v>
+        <v>1.012313439415689</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034361376166906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034248894331025</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021016761870301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9866405989236476</v>
+        <v>0.9871339287714127</v>
       </c>
       <c r="D10">
-        <v>1.015908806378811</v>
+        <v>1.016076553477876</v>
       </c>
       <c r="E10">
-        <v>0.9961620903471098</v>
+        <v>0.9965932148333367</v>
       </c>
       <c r="F10">
-        <v>1.017522228773834</v>
+        <v>1.017749037409487</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047106503372536</v>
+        <v>1.047198536884283</v>
       </c>
       <c r="J10">
-        <v>1.015394470694244</v>
+        <v>1.015867480592386</v>
       </c>
       <c r="K10">
-        <v>1.029996642899945</v>
+        <v>1.03016148339633</v>
       </c>
       <c r="L10">
-        <v>1.0106009869213</v>
+        <v>1.011024253484738</v>
       </c>
       <c r="M10">
-        <v>1.031582160429221</v>
+        <v>1.031805055480693</v>
       </c>
       <c r="N10">
-        <v>1.009103345232606</v>
+        <v>1.011662354523837</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032317245391422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032446257998547</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020480791721021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9839417256156038</v>
+        <v>0.9846174698160347</v>
       </c>
       <c r="D11">
-        <v>1.014051734799568</v>
+        <v>1.014410007651101</v>
       </c>
       <c r="E11">
-        <v>0.9940889698012874</v>
+        <v>0.9946791083538212</v>
       </c>
       <c r="F11">
-        <v>1.015254164157578</v>
+        <v>1.015664147475182</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046402289038132</v>
+        <v>1.046595107318844</v>
       </c>
       <c r="J11">
-        <v>1.013998150066075</v>
+        <v>1.014644483477849</v>
       </c>
       <c r="K11">
-        <v>1.028713433625535</v>
+        <v>1.029065194404225</v>
       </c>
       <c r="L11">
-        <v>1.009123227110514</v>
+        <v>1.009702071377228</v>
       </c>
       <c r="M11">
-        <v>1.029894030909958</v>
+        <v>1.030296585678199</v>
       </c>
       <c r="N11">
-        <v>1.008638608958267</v>
+        <v>1.011567880471778</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031442941727738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031707334941816</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020254002208681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9829240419925913</v>
+        <v>0.9836737949437425</v>
       </c>
       <c r="D12">
-        <v>1.013348683731421</v>
+        <v>1.013782263246926</v>
       </c>
       <c r="E12">
-        <v>0.9933078605718599</v>
+        <v>0.993962619291487</v>
       </c>
       <c r="F12">
-        <v>1.014397998510075</v>
+        <v>1.014880863928088</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046132253065293</v>
+        <v>1.046364899567011</v>
       </c>
       <c r="J12">
-        <v>1.013469090908123</v>
+        <v>1.014185549382599</v>
       </c>
       <c r="K12">
-        <v>1.02822453588334</v>
+        <v>1.028650096032013</v>
       </c>
       <c r="L12">
-        <v>1.008564404379112</v>
+        <v>1.009206407306964</v>
       </c>
       <c r="M12">
-        <v>1.029254458180048</v>
+        <v>1.029728417275183</v>
       </c>
       <c r="N12">
-        <v>1.008461811588871</v>
+        <v>1.011548163512432</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031097272015915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031413850661506</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020167344355138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9831417247522168</v>
+        <v>0.9838754206952242</v>
       </c>
       <c r="D13">
-        <v>1.013498371045577</v>
+        <v>1.013915659508317</v>
       </c>
       <c r="E13">
-        <v>0.9934747211422337</v>
+        <v>0.9941154619680729</v>
       </c>
       <c r="F13">
-        <v>1.014580740182571</v>
+        <v>1.015047825712339</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046189658133428</v>
+        <v>1.046413689403264</v>
       </c>
       <c r="J13">
-        <v>1.013581798141231</v>
+        <v>1.014283052180129</v>
       </c>
       <c r="K13">
-        <v>1.028328272141433</v>
+        <v>1.028737871189064</v>
       </c>
       <c r="L13">
-        <v>1.008683553987576</v>
+        <v>1.009311859396592</v>
       </c>
       <c r="M13">
-        <v>1.029390713389984</v>
+        <v>1.029849216339224</v>
       </c>
       <c r="N13">
-        <v>1.008499329575349</v>
+        <v>1.011551354410689</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031168111992768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031473162145323</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020185550438403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9838573510787488</v>
+        <v>0.9845391262590873</v>
       </c>
       <c r="D14">
-        <v>1.013993147286792</v>
+        <v>1.01435757986305</v>
       </c>
       <c r="E14">
-        <v>0.9940241144173786</v>
+        <v>0.9946195195575417</v>
       </c>
       <c r="F14">
-        <v>1.015183011609423</v>
+        <v>1.015598950024504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046379750522141</v>
+        <v>1.046575826893477</v>
       </c>
       <c r="J14">
-        <v>1.013954090465583</v>
+        <v>1.014606142754204</v>
       </c>
       <c r="K14">
-        <v>1.028672540934022</v>
+        <v>1.02903033987221</v>
       </c>
       <c r="L14">
-        <v>1.009076732130922</v>
+        <v>1.009660725337236</v>
       </c>
       <c r="M14">
-        <v>1.029840769484029</v>
+        <v>1.030249160281546</v>
       </c>
       <c r="N14">
-        <v>1.008623823396386</v>
+        <v>1.011565780814887</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031412955692041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031681514941915</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020246675042011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9842990764158056</v>
+        <v>0.9849494866832808</v>
       </c>
       <c r="D15">
-        <v>1.014299968686487</v>
+        <v>1.014632300436646</v>
       </c>
       <c r="E15">
-        <v>0.9943637245186502</v>
+        <v>0.9949317430789832</v>
       </c>
       <c r="F15">
-        <v>1.015555591414751</v>
+        <v>1.015940512205708</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046497707686256</v>
+        <v>1.046676804373078</v>
       </c>
       <c r="J15">
-        <v>1.01418479891824</v>
+        <v>1.014807101221864</v>
       </c>
       <c r="K15">
-        <v>1.028886696470895</v>
+        <v>1.029213024736211</v>
       </c>
       <c r="L15">
-        <v>1.009320197663856</v>
+        <v>1.009877413333435</v>
       </c>
       <c r="M15">
-        <v>1.030119663510669</v>
+        <v>1.03049765360155</v>
       </c>
       <c r="N15">
-        <v>1.00870125971642</v>
+        <v>1.011577488499276</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031570273266069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031817148817858</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020285087115575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.986836713207335</v>
+        <v>0.9873179029910146</v>
       </c>
       <c r="D16">
-        <v>1.016055488682739</v>
+        <v>1.016210626524934</v>
       </c>
       <c r="E16">
-        <v>0.9963155628962269</v>
+        <v>0.9967360461841771</v>
       </c>
       <c r="F16">
-        <v>1.017693346653399</v>
+        <v>1.017908026317349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047165322456879</v>
+        <v>1.04725068158399</v>
       </c>
       <c r="J16">
-        <v>1.015504011279019</v>
+        <v>1.015965455653917</v>
       </c>
       <c r="K16">
-        <v>1.030104938791577</v>
+        <v>1.03025739734027</v>
       </c>
       <c r="L16">
-        <v>1.010714786771698</v>
+        <v>1.011127631605155</v>
       </c>
       <c r="M16">
-        <v>1.031714563572011</v>
+        <v>1.031925551321722</v>
       </c>
       <c r="N16">
-        <v>1.009142258363809</v>
+        <v>1.011677585751376</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032434802193615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032559038370319</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02050286587493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9884114335147695</v>
+        <v>0.9887986412279327</v>
       </c>
       <c r="D17">
-        <v>1.017145942913893</v>
+        <v>1.017198696392198</v>
       </c>
       <c r="E17">
-        <v>0.9975291684196987</v>
+        <v>0.9978678616628514</v>
       </c>
       <c r="F17">
-        <v>1.019021437119767</v>
+        <v>1.019138677484899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047575772223385</v>
+        <v>1.047606966084697</v>
       </c>
       <c r="J17">
-        <v>1.016322344485223</v>
+        <v>1.016694182332351</v>
       </c>
       <c r="K17">
-        <v>1.030859875233094</v>
+        <v>1.030911743577853</v>
       </c>
       <c r="L17">
-        <v>1.011580659405299</v>
+        <v>1.011913378551726</v>
       </c>
       <c r="M17">
-        <v>1.032703973655047</v>
+        <v>1.032819256360198</v>
       </c>
       <c r="N17">
-        <v>1.009415834691426</v>
+        <v>1.011776684471561</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032971171777687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033024529774431</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020639154995421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9893182671540156</v>
+        <v>0.9896556482209243</v>
       </c>
       <c r="D18">
-        <v>1.017770662314053</v>
+        <v>1.017767256348489</v>
       </c>
       <c r="E18">
-        <v>0.9982280991754787</v>
+        <v>0.9985235084126767</v>
       </c>
       <c r="F18">
-        <v>1.019784849635639</v>
+        <v>1.019849053641282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047808263201962</v>
+        <v>1.047809750243816</v>
       </c>
       <c r="J18">
-        <v>1.016790981112421</v>
+        <v>1.01711523042405</v>
       </c>
       <c r="K18">
-        <v>1.031289542678869</v>
+        <v>1.031286192892917</v>
       </c>
       <c r="L18">
-        <v>1.012077488190235</v>
+        <v>1.012367776787689</v>
       </c>
       <c r="M18">
-        <v>1.033270591562274</v>
+        <v>1.033333742018962</v>
       </c>
       <c r="N18">
-        <v>1.00957177153048</v>
+        <v>1.01184693403185</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033263275309101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033276454784292</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020716416019125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9896308420627403</v>
+        <v>0.9899518354434134</v>
       </c>
       <c r="D19">
-        <v>1.017988853941116</v>
+        <v>1.01796674109944</v>
       </c>
       <c r="E19">
-        <v>0.9984697694510618</v>
+        <v>0.9987509403904047</v>
       </c>
       <c r="F19">
-        <v>1.020049564574298</v>
+        <v>1.020096153361794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047890089857903</v>
+        <v>1.047881681316238</v>
       </c>
       <c r="J19">
-        <v>1.016954433812356</v>
+        <v>1.017263017358661</v>
       </c>
       <c r="K19">
-        <v>1.031441218008879</v>
+        <v>1.031419467767275</v>
       </c>
       <c r="L19">
-        <v>1.012250283479449</v>
+        <v>1.012526609712892</v>
       </c>
       <c r="M19">
-        <v>1.033468226360096</v>
+        <v>1.033514055225059</v>
       </c>
       <c r="N19">
-        <v>1.009626737044762</v>
+        <v>1.011874908569695</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033376935040445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033377725297491</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02074445149942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.988242666965777</v>
+        <v>0.98863949885387</v>
       </c>
       <c r="D20">
-        <v>1.017028759088484</v>
+        <v>1.017092167033747</v>
       </c>
       <c r="E20">
-        <v>0.9973989531519694</v>
+        <v>0.9977460172453713</v>
       </c>
       <c r="F20">
-        <v>1.018878899358419</v>
+        <v>1.019006241923497</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047531736551125</v>
+        <v>1.047568566943334</v>
       </c>
       <c r="J20">
-        <v>1.016234460379646</v>
+        <v>1.016615483690597</v>
       </c>
       <c r="K20">
-        <v>1.030778644372747</v>
+        <v>1.030840985084968</v>
       </c>
       <c r="L20">
-        <v>1.011487693545265</v>
+        <v>1.011828616349751</v>
       </c>
       <c r="M20">
-        <v>1.032597714913841</v>
+        <v>1.032722924341898</v>
       </c>
       <c r="N20">
-        <v>1.009386395932665</v>
+        <v>1.011764438897637</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032912397110521</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032973030643245</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.0206243686174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9836528780983536</v>
+        <v>0.9843678653363686</v>
       </c>
       <c r="D21">
-        <v>1.013855497135717</v>
+        <v>1.014247820950964</v>
       </c>
       <c r="E21">
-        <v>0.9938679684190627</v>
+        <v>0.9944927192708131</v>
       </c>
       <c r="F21">
-        <v>1.015012875248742</v>
+        <v>1.015457129401728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04632803383542</v>
+        <v>1.046538945463976</v>
       </c>
       <c r="J21">
-        <v>1.013850330049496</v>
+        <v>1.014534017459205</v>
       </c>
       <c r="K21">
-        <v>1.02857904297555</v>
+        <v>1.028964199828524</v>
       </c>
       <c r="L21">
-        <v>1.008966452789124</v>
+        <v>1.009579185377678</v>
       </c>
       <c r="M21">
-        <v>1.029715298872564</v>
+        <v>1.030151462002702</v>
       </c>
       <c r="N21">
-        <v>1.008589937866845</v>
+        <v>1.011629159588232</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031360429506927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031649642929995</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020234619158165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9807023904992036</v>
+        <v>0.9816212337964065</v>
       </c>
       <c r="D22">
-        <v>1.011814694805619</v>
+        <v>1.01241788636747</v>
       </c>
       <c r="E22">
-        <v>0.9916051757638673</v>
+        <v>0.9924077281247625</v>
       </c>
       <c r="F22">
-        <v>1.012530424002722</v>
+        <v>1.013178094968605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045538562248705</v>
+        <v>1.045860883787634</v>
       </c>
       <c r="J22">
-        <v>1.01231357919969</v>
+        <v>1.013189833899033</v>
       </c>
       <c r="K22">
-        <v>1.02715567830269</v>
+        <v>1.027747292121565</v>
       </c>
       <c r="L22">
-        <v>1.007344790518002</v>
+        <v>1.00813110486952</v>
       </c>
       <c r="M22">
-        <v>1.027857671692518</v>
+        <v>1.028492934871394</v>
       </c>
       <c r="N22">
-        <v>1.008075596039075</v>
+        <v>1.011529385749856</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030340472206388</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030774367915032</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019978459276349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9822649186348912</v>
+        <v>0.9830637903905116</v>
       </c>
       <c r="D23">
-        <v>1.012890632471889</v>
+        <v>1.013373694073894</v>
       </c>
       <c r="E23">
-        <v>0.9928016813070542</v>
+        <v>0.9934993772833246</v>
       </c>
       <c r="F23">
-        <v>1.013842220586349</v>
+        <v>1.014373100526384</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045954793191222</v>
+        <v>1.046213606695386</v>
       </c>
       <c r="J23">
-        <v>1.013124371020191</v>
+        <v>1.013887310845732</v>
       </c>
       <c r="K23">
-        <v>1.027903976761052</v>
+        <v>1.028378004323677</v>
       </c>
       <c r="L23">
-        <v>1.008200946859181</v>
+        <v>1.008884896151246</v>
       </c>
       <c r="M23">
-        <v>1.02883777935956</v>
+        <v>1.0293587558888</v>
       </c>
       <c r="N23">
-        <v>1.008345982517371</v>
+        <v>1.011538008824231</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030859872963404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031209685562576</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020109951033501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9883070397473291</v>
+        <v>0.9887001087199989</v>
       </c>
       <c r="D24">
-        <v>1.017065921637021</v>
+        <v>1.017124900544691</v>
       </c>
       <c r="E24">
-        <v>0.9974469523024471</v>
+        <v>0.997790783758994</v>
       </c>
       <c r="F24">
-        <v>1.018929262898177</v>
+        <v>1.019052458194309</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047543351107003</v>
+        <v>1.047577840875932</v>
       </c>
       <c r="J24">
-        <v>1.016262751036155</v>
+        <v>1.016640186198836</v>
       </c>
       <c r="K24">
-        <v>1.030799825269523</v>
+        <v>1.030857812851733</v>
       </c>
       <c r="L24">
-        <v>1.011519051150869</v>
+        <v>1.011856807103559</v>
       </c>
       <c r="M24">
-        <v>1.032631918715155</v>
+        <v>1.032753053243872</v>
       </c>
       <c r="N24">
-        <v>1.009394320677208</v>
+        <v>1.011765871524413</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032899858801804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032954744627257</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020626451528781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9950830824523034</v>
+        <v>0.9951842662474524</v>
       </c>
       <c r="D25">
-        <v>1.021761388632624</v>
+        <v>1.021456671826158</v>
       </c>
       <c r="E25">
-        <v>1.002688972521016</v>
+        <v>1.002780339202379</v>
       </c>
       <c r="F25">
-        <v>1.024653797037751</v>
+        <v>1.024440763049738</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049269984225608</v>
+        <v>1.049112204181</v>
       </c>
       <c r="J25">
-        <v>1.01977706114166</v>
+        <v>1.019874793083859</v>
       </c>
       <c r="K25">
-        <v>1.034031024786129</v>
+        <v>1.033730787585244</v>
       </c>
       <c r="L25">
-        <v>1.015245688578345</v>
+        <v>1.015335646769433</v>
       </c>
       <c r="M25">
-        <v>1.036881080562145</v>
+        <v>1.036671155612821</v>
       </c>
       <c r="N25">
-        <v>1.010568360353966</v>
+        <v>1.012577287551149</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035181624285</v>
+        <v>1.034982910046355</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021222818110694</v>
       </c>
     </row>
   </sheetData>
